--- a/public/uploads/All_ActivityLogs.xlsx
+++ b/public/uploads/All_ActivityLogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="238">
   <si>
     <t>Date</t>
   </si>
@@ -31,148 +31,670 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Friday, August 29, 2025 at 9:28 AM</t>
+    <t>Monday, July 14, 2025 at 3:04:38 PM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>HR Attendance</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 1h 4m 38s</t>
+  </si>
+  <si>
+    <t>Friday, August 29, 2025 at 9:28:46 AM</t>
+  </si>
+  <si>
+    <t>On Field</t>
+  </si>
+  <si>
+    <t>Late: 1h 28m 46s</t>
+  </si>
+  <si>
+    <t>Thursday, July 17, 2025 at 9:13:23 AM</t>
   </si>
   <si>
     <t>Leroux Xchire</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>On Field</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>Late: 1h 28m 46s</t>
-  </si>
-  <si>
-    <t>Friday, August 15, 2025 at 3:18 PM</t>
-  </si>
-  <si>
-    <t>Xieghart Leroux Roluna</t>
-  </si>
-  <si>
-    <t>HR Attendance</t>
+    <t>Late: 1h 13m 23s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 8:25:56 AM</t>
+  </si>
+  <si>
+    <t>Late: 0h 25m 56s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 9:16:55 AM</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>On Time</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 9:18:46 AM</t>
+  </si>
+  <si>
+    <t>Site Visit</t>
+  </si>
+  <si>
+    <t>Late: 1h 18m 46s</t>
+  </si>
+  <si>
+    <t>Wednesday, July 30, 2025 at 5:01:26 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 3h 1m 26s</t>
+  </si>
+  <si>
+    <t>Wednesday, July 30, 2025 at 5:01:44 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 0h 1m 44s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12, 2025 at 10:00:36 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 8h 0m 36s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12, 2025 at 10:27:03 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 5h 27m 3s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12, 2025 at 10:30:06 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 5h 30m 6s</t>
+  </si>
+  <si>
+    <t>Friday, August 15, 2025 at 3:18:44 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 1h 18m 44s</t>
+  </si>
+  <si>
+    <t>Saturday, August 16, 2025 at 9:39:33 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 39m 33s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26, 2025 at 1:28:55 PM</t>
+  </si>
+  <si>
+    <t>Halfday</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26, 2025 at 1:38:45 PM</t>
+  </si>
+  <si>
+    <t>Undertime: 3h 21m 14s</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9, 2025 at 9:01:07 AM</t>
+  </si>
+  <si>
+    <t>On Site</t>
+  </si>
+  <si>
+    <t>Late: 1h 1m 7s</t>
+  </si>
+  <si>
+    <t>Wednesday, July 23, 2025 at 8:49:09 AM</t>
+  </si>
+  <si>
+    <t>jomelee Merencillo</t>
+  </si>
+  <si>
+    <t>Late: 0h 49m 9s</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 10:53:04 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 53m 4s</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 10:57:06 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 57m 6s</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 10:59:07 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 59m 7s</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 1:47:18 PM</t>
+  </si>
+  <si>
+    <t>Monday, August 18, 2025 at 3:55:43 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 1h 55m 43s</t>
+  </si>
+  <si>
+    <t>Tuesday, September 2, 2025 at 2:40:58 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 0h 40m 58s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 2:30:38 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 0h 30m 38s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 2:31:06 PM</t>
+  </si>
+  <si>
+    <t>Undertime: 2h 28m 53s</t>
+  </si>
+  <si>
+    <t>Wednesday, July 23, 2025 at 5:42:14 PM</t>
+  </si>
+  <si>
+    <t>olive minano</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 3h 42m 14s</t>
+  </si>
+  <si>
+    <t>Wednesday, July 23, 2025 at 5:42:46 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 3h 42m 46s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 9:57:48 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 57m 48s</t>
+  </si>
+  <si>
+    <t>Friday, August 8, 2025 at 11:02:49 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 2m 49s</t>
+  </si>
+  <si>
+    <t>Friday, August 15, 2025 at 3:14:25 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 1h 14m 25s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26, 2025 at 9:40:07 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 40m 7s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 9:35:31 AM</t>
+  </si>
+  <si>
+    <t>Sette Hosena</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Late: 1h 35m 31s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 9:37:31 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 37m 31s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 10:35:50 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 35m 50s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 10:37:28 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 37m 28s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 10:41:42 AM</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 10:43:45 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 43m 45s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 10:45:22 AM</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 10:46:16 AM</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 11:06:16 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 6m 16s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 11:33:21 AM</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 11:43:55 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 43m 55s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 1:43:20 PM</t>
+  </si>
+  <si>
+    <t>Undertime: 3h 16m 39s</t>
+  </si>
+  <si>
+    <t>Friday, August 8, 2025 at 11:44:00 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 44m 0s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26, 2025 at 10:07:53 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 7m 53s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26, 2025 at 12:35:12 PM</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 9:26:02 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 26m 2s</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025 at 4:28:14 PM</t>
+  </si>
+  <si>
+    <t>dave catausan</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 2h 28m 14s</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 1:55:37 PM</t>
+  </si>
+  <si>
+    <t>Saturday, July 26, 2025 at 8:23:18 AM</t>
+  </si>
+  <si>
+    <t>july baluyut</t>
+  </si>
+  <si>
+    <t>Warehouse Operations</t>
+  </si>
+  <si>
+    <t>Late: 0h 23m 18s</t>
+  </si>
+  <si>
+    <t>Saturday, July 26, 2025 at 8:24:54 AM</t>
+  </si>
+  <si>
+    <t>Late: 0h 24m 54s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 10:10:35 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 10m 35s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 10:50:15 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 50m 15s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 11:48:53 AM</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 12:55:13 PM</t>
+  </si>
+  <si>
+    <t>Late: 4h 55m 13s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 2:03:14 PM</t>
+  </si>
+  <si>
+    <t>Undertime: 2h 56m 45s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5, 2025 at 10:01:52 AM</t>
+  </si>
+  <si>
+    <t>Late: 2h 1m 52s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 8:49:36 AM</t>
+  </si>
+  <si>
+    <t>Late: 0h 49m 36s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 11:18:45 AM</t>
+  </si>
+  <si>
+    <t>randy luna</t>
+  </si>
+  <si>
+    <t>Late: 3h 18m 45s</t>
+  </si>
+  <si>
+    <t>Monday, July 28, 2025 at 3:31:02 PM</t>
+  </si>
+  <si>
+    <t>shane rey santos</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 1h 31m 2s</t>
+  </si>
+  <si>
+    <t>Tuesday, July 29, 2025 at 11:05:48 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 5m 48s</t>
+  </si>
+  <si>
+    <t>Tuesday, July 29, 2025 at 4:35:55 PM</t>
+  </si>
+  <si>
+    <t>Undertime: 0h 24m 4s</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9, 2025 at 7:54:18 AM</t>
+  </si>
+  <si>
+    <t>Tuesday, July 29, 2025 at 7:54:36 AM</t>
+  </si>
+  <si>
+    <t>Karl baturiano</t>
+  </si>
+  <si>
+    <t>Engineering Department</t>
+  </si>
+  <si>
+    <t>Tuesday, July 29, 2025 at 5:33:36 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 0h 33m 36s</t>
+  </si>
+  <si>
+    <t>Wednesday, July 30, 2025 at 7:53:21 AM</t>
+  </si>
+  <si>
+    <t>Thursday, July 31, 2025 at 7:56:34 AM</t>
+  </si>
+  <si>
+    <t>Friday, August 1, 2025 at 7:52:45 AM</t>
+  </si>
+  <si>
+    <t>Friday, August 1, 2025 at 6:33:40 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 1h 33m 40s</t>
+  </si>
+  <si>
+    <t>Monday, August 4, 2025 at 6:25:31 PM</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 4h 25m 31s</t>
+  </si>
+  <si>
+    <t>Monday, August 4, 2025 at 6:25:53 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 1h 25m 53s</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5, 2025 at 7:45:27 AM</t>
+  </si>
+  <si>
+    <t>Saturday, August 9, 2025 at 7:48:35 AM</t>
+  </si>
+  <si>
+    <t>Saturday, August 9, 2025 at 7:32:45 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 2h 32m 45s</t>
+  </si>
+  <si>
+    <t>Monday, August 11, 2025 at 7:52:45 AM</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12, 2025 at 7:58:45 AM</t>
+  </si>
+  <si>
+    <t>Wednesday, August 13, 2025 at 6:12:38 AM</t>
+  </si>
+  <si>
+    <t>Wednesday, August 13, 2025 at 7:10:30 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 2h 10m 30s</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 7:59:40 AM</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025 at 8:03:11 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 3h 3m 11s</t>
+  </si>
+  <si>
+    <t>Friday, August 15, 2025 at 7:57:04 AM</t>
+  </si>
+  <si>
+    <t>Friday, August 15, 2025 at 8:01:33 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 3h 1m 33s</t>
+  </si>
+  <si>
+    <t>Saturday, August 16, 2025 at 7:57:51 AM</t>
+  </si>
+  <si>
+    <t>Saturday, August 16, 2025 at 9:53:41 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 4h 53m 41s</t>
+  </si>
+  <si>
+    <t>Monday, August 18, 2025 at 6:22:52 AM</t>
+  </si>
+  <si>
+    <t>Monday, August 18, 2025 at 9:25:20 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 4h 25m 20s</t>
+  </si>
+  <si>
+    <t>Wednesday, August 20, 2025 at 6:29:55 AM</t>
+  </si>
+  <si>
+    <t>Friday, August 29, 2025 at 9:15:24 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 15m 24s</t>
+  </si>
+  <si>
+    <t>Wednesday, September 3, 2025 at 6:29:50 AM</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025 at 7:48:17 AM</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025 at 9:33:43 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 4h 33m 43s</t>
+  </si>
+  <si>
+    <t>Thursday, July 31, 2025 at 5:37:24 AM</t>
+  </si>
+  <si>
+    <t>Engr. patrick bataller</t>
+  </si>
+  <si>
+    <t>Thursday, July 31, 2025 at 4:55:26 PM</t>
+  </si>
+  <si>
+    <t>Undertime: 0h 4m 33s</t>
+  </si>
+  <si>
+    <t>Monday, September 1, 2025 at 9:54:41 AM</t>
+  </si>
+  <si>
+    <t>babyrose nebril</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Late: 7h 18m 44s</t>
-  </si>
-  <si>
-    <t>Saturday, August 16, 2025 at 9:39 AM</t>
-  </si>
-  <si>
-    <t>Late: 1h 39m 33s</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26, 2025 at 1:28 PM</t>
-  </si>
-  <si>
-    <t>Late: 5h 28m 55s</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26, 2025 at 1:38 PM</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>On Time</t>
-  </si>
-  <si>
-    <t>Monday, August 18, 2025 at 3:55 PM</t>
-  </si>
-  <si>
-    <t>jomelee Merencillo</t>
-  </si>
-  <si>
-    <t>Late: 7h 55m 43s</t>
-  </si>
-  <si>
-    <t>Friday, August 15, 2025 at 3:14 PM</t>
-  </si>
-  <si>
-    <t>olive minano</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>Late: 7h 14m 25s</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26, 2025 at 9:40 AM</t>
-  </si>
-  <si>
-    <t>On Site</t>
-  </si>
-  <si>
-    <t>Late: 1h 40m 7s</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26, 2025 at 10:07 AM</t>
-  </si>
-  <si>
-    <t>Sette Hosena</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>Late: 2h 7m 53s</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26, 2025 at 12:35 PM</t>
-  </si>
-  <si>
-    <t>Friday, August 15, 2025 at 7:57 AM</t>
-  </si>
-  <si>
-    <t>Karl baturiano</t>
-  </si>
-  <si>
-    <t>Engineering Department</t>
-  </si>
-  <si>
-    <t>Friday, August 15, 2025 at 8:01 PM</t>
-  </si>
-  <si>
-    <t>Overtime: 2h 31m 33s</t>
-  </si>
-  <si>
-    <t>Saturday, August 16, 2025 at 7:57 AM</t>
-  </si>
-  <si>
-    <t>Saturday, August 16, 2025 at 9:53 PM</t>
-  </si>
-  <si>
-    <t>Overtime: 4h 23m 41s</t>
-  </si>
-  <si>
-    <t>Monday, August 18, 2025 at 6:22 AM</t>
-  </si>
-  <si>
-    <t>Monday, August 18, 2025 at 9:25 PM</t>
-  </si>
-  <si>
-    <t>Overtime: 3h 55m 20s</t>
-  </si>
-  <si>
-    <t>Wednesday, August 20, 2025 at 6:29 AM</t>
-  </si>
-  <si>
-    <t>Friday, August 29, 2025 at 9:15 AM</t>
-  </si>
-  <si>
-    <t>Late: 1h 15m 24s</t>
-  </si>
-  <si>
-    <t/>
+    <t>Late: 1h 54m 41s</t>
+  </si>
+  <si>
+    <t>Monday, September 1, 2025 at 10:20:41 AM</t>
+  </si>
+  <si>
+    <t>Monday, September 1, 2025 at 11:17:25 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 17m 25s</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025 at 9:44:09 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 44m 9s</t>
+  </si>
+  <si>
+    <t>Saturday, September 6, 2025 at 9:37:16 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 37m 16s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 9:38:33 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 38m 33s</t>
+  </si>
+  <si>
+    <t>Wednesday, September 3, 2025 at 11:04:44 AM</t>
+  </si>
+  <si>
+    <t>jeffrey camagong</t>
+  </si>
+  <si>
+    <t>Late: 3h 4m 44s</t>
+  </si>
+  <si>
+    <t>Wednesday, September 3, 2025 at 5:02:26 PM</t>
+  </si>
+  <si>
+    <t>Overtime: 0h 2m 26s</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025 at 9:04:36 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 4m 36s</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025 at 9:06:53 AM</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025 at 9:10:16 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 10m 16s</t>
+  </si>
+  <si>
+    <t>Saturday, September 6, 2025 at 8:36:20 AM</t>
+  </si>
+  <si>
+    <t>Late: 0h 36m 20s</t>
+  </si>
+  <si>
+    <t>Saturday, September 6, 2025 at 9:09:45 AM</t>
+  </si>
+  <si>
+    <t>Late: 1h 9m 45s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 10:50:40 AM</t>
+  </si>
+  <si>
+    <t>Erwin Jr Laude</t>
+  </si>
+  <si>
+    <t>Late: 2h 50m 40s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 11:35:12 AM</t>
+  </si>
+  <si>
+    <t>Late: 3h 35m 12s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 3:03:23 PM</t>
+  </si>
+  <si>
+    <t>kenny caminade</t>
+  </si>
+  <si>
+    <t>Invalid (Needs Verification): 1h 3m 23s</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9, 2025 at 7:06:17 AM</t>
+  </si>
+  <si>
+    <t>Agnes Angeli Panopio</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9, 2025 at 7:11:49 AM</t>
+  </si>
+  <si>
+    <t>Jerry Abaluyan</t>
   </si>
   <si>
     <t>TOTALS</t>
@@ -181,13 +703,28 @@
     <t>Total Late</t>
   </si>
   <si>
-    <t>36h 9m 34s</t>
+    <t>93h 44m 30s</t>
   </si>
   <si>
     <t>Total Overtime</t>
   </si>
   <si>
-    <t>10h 50m 35s</t>
+    <t>39h 15m 17s</t>
+  </si>
+  <si>
+    <t>Total Undertime</t>
+  </si>
+  <si>
+    <t>12h 32m 10s</t>
+  </si>
+  <si>
+    <t>Total Halfday</t>
+  </si>
+  <si>
+    <t>Total Invalid (Needs Verification)</t>
+  </si>
+  <si>
+    <t>34h 40m 25s</t>
   </si>
 </sst>
 </file>
@@ -564,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F119"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,58 +1138,58 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -661,58 +1198,58 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -721,38 +1258,38 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -761,178 +1298,178 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -941,40 +1478,1933 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>145</v>
+      </c>
+      <c r="F89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" t="s">
+        <v>191</v>
+      </c>
+      <c r="F102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>191</v>
+      </c>
+      <c r="F103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>191</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" t="s">
+        <v>191</v>
+      </c>
+      <c r="F107" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
